--- a/docs/StructureDefinition-AgrupacionPorMarcas.xlsx
+++ b/docs/StructureDefinition-AgrupacionPorMarcas.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-10T11:42:08-04:00</t>
+    <t>2023-08-10T15:46:58-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AgrupacionPorMarcas.xlsx
+++ b/docs/StructureDefinition-AgrupacionPorMarcas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="284">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2</t>
+    <t>0.1.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-10T15:46:58-04:00</t>
+    <t>2023-09-04T11:09:02-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -146,6 +146,10 @@
   </si>
   <si>
     <t>If both Group.characteristic and Group.member are present, then the members are the individuals who were found who met the characteristic.  It's possible that there might be other candidate members who meet the characteristic and aren't (yet) in the list.  All members SHALL have the listed characteristics.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}grp-1:Can only have members if group is "actual" {member.empty() or (actual = true)}</t>
   </si>
   <si>
     <t>Entity[determinerCode="GRP" or determinerCode="GRP_KIND"]</t>
@@ -1360,10 +1364,10 @@
         <v>36</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL1" t="s" s="2">
         <v>36</v>
@@ -1371,10 +1375,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1385,7 +1389,7 @@
         <v>37</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>36</v>
@@ -1394,19 +1398,19 @@
         <v>36</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1456,13 +1460,13 @@
         <v>36</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>36</v>
@@ -1479,10 +1483,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1493,7 +1497,7 @@
         <v>37</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>36</v>
@@ -1502,16 +1506,16 @@
         <v>36</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1562,19 +1566,19 @@
         <v>36</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>36</v>
@@ -1585,10 +1589,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1599,28 +1603,28 @@
         <v>37</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1670,19 +1674,19 @@
         <v>36</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>36</v>
@@ -1693,10 +1697,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1707,7 +1711,7 @@
         <v>37</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>36</v>
@@ -1719,16 +1723,16 @@
         <v>36</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1754,13 +1758,13 @@
         <v>36</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>36</v>
@@ -1778,19 +1782,19 @@
         <v>36</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>36</v>
@@ -1801,21 +1805,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>36</v>
@@ -1827,16 +1831,16 @@
         <v>36</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1886,22 +1890,22 @@
         <v>36</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>36</v>
@@ -1909,14 +1913,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -1935,16 +1939,16 @@
         <v>36</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1994,7 +1998,7 @@
         <v>36</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>37</v>
@@ -2009,7 +2013,7 @@
         <v>36</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>36</v>
@@ -2017,14 +2021,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2043,16 +2047,16 @@
         <v>36</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2102,7 +2106,7 @@
         <v>36</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>37</v>
@@ -2114,10 +2118,10 @@
         <v>36</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>36</v>
@@ -2125,14 +2129,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2145,25 +2149,25 @@
         <v>36</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>36</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>36</v>
@@ -2212,7 +2216,7 @@
         <v>36</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>37</v>
@@ -2224,10 +2228,10 @@
         <v>36</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>36</v>
@@ -2235,10 +2239,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2258,20 +2262,20 @@
         <v>36</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>36</v>
@@ -2320,7 +2324,7 @@
         <v>36</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>37</v>
@@ -2332,21 +2336,21 @@
         <v>36</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2357,7 +2361,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>36</v>
@@ -2366,26 +2370,26 @@
         <v>36</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>36</v>
       </c>
       <c r="Q11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="R11" t="s" s="2">
         <v>36</v>
@@ -2430,33 +2434,33 @@
         <v>36</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2464,34 +2468,34 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>36</v>
@@ -2501,7 +2505,7 @@
         <v>36</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>36</v>
@@ -2516,13 +2520,13 @@
         <v>36</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>36</v>
@@ -2540,33 +2544,33 @@
         <v>36</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2574,32 +2578,32 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>36</v>
@@ -2609,7 +2613,7 @@
         <v>36</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="T13" t="s" s="2">
         <v>36</v>
@@ -2648,33 +2652,33 @@
         <v>36</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>127</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2685,7 +2689,7 @@
         <v>37</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>36</v>
@@ -2694,19 +2698,19 @@
         <v>36</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2732,10 +2736,10 @@
         <v>36</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>36</v>
@@ -2756,33 +2760,33 @@
         <v>36</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2793,7 +2797,7 @@
         <v>37</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>36</v>
@@ -2802,20 +2806,20 @@
         <v>36</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>36</v>
@@ -2864,22 +2868,22 @@
         <v>36</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>36</v>
@@ -2887,10 +2891,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2901,7 +2905,7 @@
         <v>37</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>36</v>
@@ -2910,22 +2914,22 @@
         <v>36</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>36</v>
@@ -2974,22 +2978,22 @@
         <v>36</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>36</v>
@@ -2997,10 +3001,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3011,7 +3015,7 @@
         <v>37</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>36</v>
@@ -3020,19 +3024,19 @@
         <v>36</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3082,19 +3086,19 @@
         <v>36</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>36</v>
@@ -3105,10 +3109,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3116,13 +3120,13 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>36</v>
@@ -3131,19 +3135,19 @@
         <v>36</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>36</v>
@@ -3192,7 +3196,7 @@
         <v>36</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>37</v>
@@ -3204,10 +3208,10 @@
         <v>36</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>36</v>
@@ -3215,10 +3219,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3229,7 +3233,7 @@
         <v>37</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>36</v>
@@ -3241,13 +3245,13 @@
         <v>36</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3298,13 +3302,13 @@
         <v>36</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>36</v>
@@ -3313,7 +3317,7 @@
         <v>36</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>36</v>
@@ -3321,14 +3325,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3347,16 +3351,16 @@
         <v>36</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3406,7 +3410,7 @@
         <v>36</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>37</v>
@@ -3418,10 +3422,10 @@
         <v>36</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>36</v>
@@ -3429,14 +3433,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3449,25 +3453,25 @@
         <v>36</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>36</v>
@@ -3516,7 +3520,7 @@
         <v>36</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>37</v>
@@ -3528,10 +3532,10 @@
         <v>36</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>36</v>
@@ -3539,10 +3543,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3550,13 +3554,13 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>36</v>
@@ -3565,17 +3569,17 @@
         <v>36</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>36</v>
@@ -3600,11 +3604,11 @@
         <v>36</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>36</v>
@@ -3622,22 +3626,22 @@
         <v>36</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>36</v>
@@ -3645,10 +3649,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3659,7 +3663,7 @@
         <v>37</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>36</v>
@@ -3671,13 +3675,13 @@
         <v>36</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3728,13 +3732,13 @@
         <v>36</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>36</v>
@@ -3743,7 +3747,7 @@
         <v>36</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>36</v>
@@ -3751,14 +3755,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3777,16 +3781,16 @@
         <v>36</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3824,19 +3828,19 @@
         <v>36</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>37</v>
@@ -3848,10 +3852,10 @@
         <v>36</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>36</v>
@@ -3859,10 +3863,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3870,34 +3874,34 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>36</v>
@@ -3946,7 +3950,7 @@
         <v>36</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>37</v>
@@ -3958,10 +3962,10 @@
         <v>36</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>36</v>
@@ -3969,10 +3973,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3983,7 +3987,7 @@
         <v>37</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>36</v>
@@ -3995,13 +3999,13 @@
         <v>36</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4052,13 +4056,13 @@
         <v>36</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>36</v>
@@ -4067,7 +4071,7 @@
         <v>36</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>36</v>
@@ -4075,14 +4079,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4101,16 +4105,16 @@
         <v>36</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4148,19 +4152,19 @@
         <v>36</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>37</v>
@@ -4172,10 +4176,10 @@
         <v>36</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>36</v>
@@ -4183,10 +4187,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4194,34 +4198,34 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>36</v>
@@ -4270,22 +4274,22 @@
         <v>36</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>36</v>
@@ -4293,10 +4297,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4307,7 +4311,7 @@
         <v>37</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>36</v>
@@ -4316,19 +4320,19 @@
         <v>36</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4378,22 +4382,22 @@
         <v>36</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>36</v>
@@ -4401,10 +4405,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4412,32 +4416,32 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>36</v>
@@ -4486,22 +4490,22 @@
         <v>36</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>36</v>
@@ -4509,10 +4513,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4523,29 +4527,29 @@
         <v>37</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>36</v>
@@ -4594,22 +4598,22 @@
         <v>36</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>36</v>
@@ -4617,10 +4621,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4631,7 +4635,7 @@
         <v>37</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>36</v>
@@ -4640,22 +4644,22 @@
         <v>36</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>36</v>
@@ -4704,22 +4708,22 @@
         <v>36</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>36</v>
@@ -4727,10 +4731,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4741,31 +4745,31 @@
         <v>37</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>36</v>
@@ -4814,22 +4818,22 @@
         <v>36</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>36</v>
@@ -4837,10 +4841,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4848,10 +4852,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>36</v>
@@ -4863,19 +4867,19 @@
         <v>36</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>36</v>
@@ -4900,10 +4904,10 @@
         <v>36</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>36</v>
@@ -4912,32 +4916,32 @@
         <v>36</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>36</v>
@@ -4945,13 +4949,13 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>36</v>
@@ -4961,10 +4965,10 @@
         <v>37</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>36</v>
@@ -4973,19 +4977,19 @@
         <v>36</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>36</v>
@@ -5010,10 +5014,10 @@
         <v>36</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>36</v>
@@ -5034,22 +5038,22 @@
         <v>36</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>36</v>
@@ -5057,10 +5061,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5068,10 +5072,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>36</v>
@@ -5083,19 +5087,19 @@
         <v>36</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>36</v>
@@ -5144,22 +5148,22 @@
         <v>36</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>36</v>
@@ -5167,10 +5171,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5181,7 +5185,7 @@
         <v>37</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>36</v>
@@ -5193,13 +5197,13 @@
         <v>36</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5250,19 +5254,19 @@
         <v>36</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>36</v>
@@ -5273,10 +5277,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5284,13 +5288,13 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>36</v>
@@ -5299,17 +5303,17 @@
         <v>36</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>36</v>
@@ -5358,7 +5362,7 @@
         <v>36</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>37</v>
@@ -5367,13 +5371,13 @@
         <v>38</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>36</v>
@@ -5381,10 +5385,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5395,7 +5399,7 @@
         <v>37</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>36</v>
@@ -5407,13 +5411,13 @@
         <v>36</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5464,13 +5468,13 @@
         <v>36</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>36</v>
@@ -5479,7 +5483,7 @@
         <v>36</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>36</v>
@@ -5487,14 +5491,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -5513,16 +5517,16 @@
         <v>36</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -5572,7 +5576,7 @@
         <v>36</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>37</v>
@@ -5584,10 +5588,10 @@
         <v>36</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>36</v>
@@ -5595,14 +5599,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -5615,25 +5619,25 @@
         <v>36</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>36</v>
@@ -5682,7 +5686,7 @@
         <v>36</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>37</v>
@@ -5694,10 +5698,10 @@
         <v>36</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>36</v>
@@ -5705,10 +5709,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5716,13 +5720,13 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>36</v>
@@ -5731,13 +5735,13 @@
         <v>36</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5788,19 +5792,19 @@
         <v>36</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>36</v>
@@ -5811,10 +5815,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5825,7 +5829,7 @@
         <v>37</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>36</v>
@@ -5837,23 +5841,23 @@
         <v>36</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="Q43" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>36</v>
@@ -5898,19 +5902,19 @@
         <v>36</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>36</v>
@@ -5921,10 +5925,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5935,7 +5939,7 @@
         <v>37</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>36</v>
@@ -5947,23 +5951,23 @@
         <v>36</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="Q44" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="R44" t="s" s="2">
         <v>36</v>
@@ -6008,19 +6012,19 @@
         <v>36</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>36</v>
